--- a/data/financial_statements/socf/BRO.xlsx
+++ b/data/financial_statements/socf/BRO.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1623 +584,1659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>145200000</v>
+      </c>
+      <c r="C2">
         <v>161100000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>145200000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>220300000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>101704000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>146400000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>139300000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>199700000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>97320000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>133979000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>96784000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>152400000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>76519000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>115506000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>92593000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>113896000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>73452000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>106053000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>73922000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>90828000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>187505000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>75913000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>66102000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>70110000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>57626000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>71545000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>66250000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>62070000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>57935000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>67427000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>61005000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>56951000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>24395000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>68331000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>61755000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>52415000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>47225000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>57749000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>52007000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>60131000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>50300000</v>
+      </c>
+      <c r="C3">
         <v>55900000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>43700000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>39900000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>39712000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>39400000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>39100000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>37700000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>36495000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>34270000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>33470000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>32931000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>33320000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>32621000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>32147000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>32676000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>30408000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>27292000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>26794000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>26501000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>26914000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>27337000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>27607000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>28148000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>27214000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>27428000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>27420000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>27405000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>27309000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>26608000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>27314000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>27237000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>28062000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>27439000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>25865000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>22516000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>22381000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>22324000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>20384000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>20328000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3000000</v>
+      </c>
+      <c r="C4">
         <v>2600000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>11900000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>18200000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>21917000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>41300000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16400000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>27800000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14731000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>36631000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>21926000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-7417000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>18638000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>12949000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>16395000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>128000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>40424000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>965000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1070000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-5435000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-117767000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>6310000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>14715000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>18048000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8115000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>12410000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>13144000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>6423000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-1047000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>9086000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>7528000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>14155000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>38866000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8879000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>5203000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>23648000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>8577000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>15539000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>8682000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>18991000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>177100000</v>
+      </c>
+      <c r="C5">
         <v>-956000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>13100000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-63000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>160320000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-187200000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5800000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-71400000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-8248000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4732000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-88674000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-28141000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>205582000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-201916000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-91109000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>7556000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-35950000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-4489000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>21795000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>337438000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1662510000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-2164075000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3381000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>55141000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>221695000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-268417000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-42011000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-20932000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-4203000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>33165000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-49875000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-5190000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-22080000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>47397000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-16095000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-8172000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-22632000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-11790000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-6569000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>262000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>125000000</v>
+      </c>
+      <c r="C6">
         <v>-15200000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>221200000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-150600000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>173484000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>46500000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>110000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-69200000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>191676000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-100703000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>377508000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-155642000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>240855000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-116616000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>239689000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-126039000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>153284000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-43566000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>166189000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-73154000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>49742000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-8482000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>125626000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-64843000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>48096000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-27873000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>161793000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-78070000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>44417000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-25691000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>46375000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-33092000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>29534000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-36530000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>117379000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-21979000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>66714000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-32288000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>41568000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>61682000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-21000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>79100000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>22200000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>171547000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-198438000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>241253000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-34967000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>154502000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-166782000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>275450000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3359000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>101317000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8">
         <v>-133000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-397000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-5567000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-1249000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-774000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-675000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-44000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-1783000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-315000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-516000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-209000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-2258000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-1796000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-255000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-55000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-252000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-219000000</v>
+      </c>
+      <c r="C9">
         <v>1005200000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-192500000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>38800000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-182468000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>161500000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-68700000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>13400000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-149915000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>13980000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-58132000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>39686000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-343854000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>298873000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>10632000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-22861000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-49606000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-8144000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-91845000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-296697000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-1680499000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2106486000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-57371000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-16583000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-270706000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>265752000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-15564000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>37575000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-32446000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-46663000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>84379000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-7576000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1207000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-7252000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-83441000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>975000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-40999000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>36740000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-31153000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-24121000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>281600000</v>
+      </c>
+      <c r="C10">
         <v>253600000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>242600000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>103600000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>314669000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>247900000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>241900000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>138000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>182059000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>122889000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>382882000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>33817000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>231060000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>141417000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>300347000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5356000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>212012000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>78111000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>197925000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>79481000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>128405000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>43489000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>180060000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>90021000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>91907000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>80448000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>205465000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>33222000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>91191000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>63257000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>176682000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>50702000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>99669000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>107748000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>110457000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>67145000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>79470000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>88019000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>84864000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>137021000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>37900000</v>
+      </c>
+      <c r="C11">
         <v>-16300000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-4100000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-9800000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-3010000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-8500000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-5600000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-11200000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-13887000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-11555000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-19570000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-16073000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-7657000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-10786000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-9919000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-23154000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-11015000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-9037000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-6875000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-9609000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-11286000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-633000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-5736000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-2443000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-3084000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-4071000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-3868000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-1785000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>180000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-3380000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-4584000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-15000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>5505000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-7427000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-5472000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-3898000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>106000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-3976000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-3906000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-2704000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-38000000</v>
+      </c>
+      <c r="C12">
         <v>-1432500000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-21200000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-436000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-188780000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-61400000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-46200000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-70400000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-292484000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-110934000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-138133000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-153291000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-64650000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-141747000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-51565000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-95081000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-669038000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-113033000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-108227000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-33576000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-14993000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-14952000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-11526000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-9403000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-5929000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-66687000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-40603000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-26074000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-4870000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-68861000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-36195000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-1670000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-79000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-693724000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-1013000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-28360000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-324968000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-14323000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-61000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>3700000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3600000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1510000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-200000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-2100000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-800000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-448000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-3333000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>483000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>155000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-1642000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-2624000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-7121000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2361000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-15000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1171000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>7094000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>389000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>4194000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-2210000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-3305000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>300000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>634000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-590000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-4524000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-2502000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1577000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-1502000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-2320000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1407000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>554000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>55000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>199000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-343000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1069000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>512000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-4977000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>956000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-74600000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>164800000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-118600000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-26406000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-1913000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-19081000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-15121000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-56439000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-2957000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-425000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-6477000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-12985000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>-100000</v>
+      </c>
+      <c r="C15">
         <v>-1445100000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-21700000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-445800000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-190280000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-70100000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-53900000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-82400000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-306819000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-125822000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-157220000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-169209000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-73949000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-155157000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-68605000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-115874000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-680068000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-120899000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-108008000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-42796000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-22085000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-17795000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-20567000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-2143000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-11853000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-10590000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-75079000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-44890000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-24317000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-9752000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-75765000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-34803000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>4389000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-7451000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-698997000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-5254000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-27185000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-328432000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-23206000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-1809000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-166900000</v>
+      </c>
+      <c r="C16">
         <v>-116900000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>683100000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1539400000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-20625000</v>
-      </c>
-      <c r="F16">
-        <v>-17500000</v>
       </c>
       <c r="G16">
         <v>-17500000</v>
@@ -2095,40 +2245,40 @@
         <v>-17500000</v>
       </c>
       <c r="I16">
+        <v>-17500000</v>
+      </c>
+      <c r="J16">
         <v>-13750000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>486250000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>86250000</v>
-      </c>
-      <c r="L16">
-        <v>-13750000</v>
       </c>
       <c r="M16">
         <v>-13750000</v>
       </c>
       <c r="N16">
+        <v>-13750000</v>
+      </c>
+      <c r="O16">
         <v>86250000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-13750000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-8750000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>645000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-4999000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-105001000</v>
-      </c>
-      <c r="T16">
-        <v>-5000000</v>
       </c>
       <c r="U16">
         <v>-5000000</v>
@@ -2137,22 +2287,22 @@
         <v>-5000000</v>
       </c>
       <c r="W16">
+        <v>-5000000</v>
+      </c>
+      <c r="X16">
         <v>-72500000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-14250000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-38750000</v>
-      </c>
-      <c r="Z16">
-        <v>-13750000</v>
       </c>
       <c r="AA16">
         <v>-13750000</v>
       </c>
       <c r="AB16">
-        <v>-6875000</v>
+        <v>-13750000</v>
       </c>
       <c r="AC16">
         <v>-6875000</v>
@@ -2164,696 +2314,717 @@
         <v>-6875000</v>
       </c>
       <c r="AF16">
+        <v>-6875000</v>
+      </c>
+      <c r="AG16">
         <v>-25000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-7000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>23432000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>695000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>29967000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-60000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>48900000</v>
+      </c>
+      <c r="C17">
         <v>-12200000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-49100000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-24100000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>79000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-17900000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-10500000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-70000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-88939000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>23469000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>587000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-1429000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-39811000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>14305000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-12283000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-6816000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-92129000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>18686000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-10530000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-71215000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-24289000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-16219000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>506000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-18984000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>12921000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-4888000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-469000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-75524000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>15225000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-44000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-101624000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-446000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-36292000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-27451000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>720000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-125000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>10634000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>27000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>625000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>-29000000</v>
+        <v>-32600000</v>
       </c>
       <c r="C18">
         <v>-29000000</v>
       </c>
       <c r="D18">
+        <v>-29000000</v>
+      </c>
+      <c r="E18">
         <v>-28900000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-29029000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-26000000</v>
-      </c>
-      <c r="G18">
-        <v>-26100000</v>
       </c>
       <c r="H18">
         <v>-26100000</v>
       </c>
       <c r="I18">
+        <v>-26100000</v>
+      </c>
+      <c r="J18">
         <v>-28517000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-24089000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-24084000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-23902000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-23912000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-22551000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-22533000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-22348000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-22334000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-20945000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-20715000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-20696000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-20911000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-18961000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-18937000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-18903000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-18945000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-17189000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-17166000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-16962000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-17268000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-15560000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-15495000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-15785000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-15787000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-14505000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-14496000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-14546000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-14533000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-13101000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-12959000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-12953000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>-500000</v>
+      </c>
+      <c r="C19">
         <v>-31300000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>162500000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-188000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-29204000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-39900000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>77000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-73100000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>26040000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-43060000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1389000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-13324000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>8742000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-4450000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>6718000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-4277000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-9572000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-12426000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-3419000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1830000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-8313000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-31167000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-996000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-10425000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>10946000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-16463000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>4082000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-4278000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-2621000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-10084000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-6627000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-2807000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>138000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>53000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-5423000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-1000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-5640000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-1647000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-3347000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-2499000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>-151100000</v>
+      </c>
+      <c r="C20">
         <v>-189400000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>767500000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1298400000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-78779000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-101300000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>22900000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-186700000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-105166000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>442570000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>61364000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-52405000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-68731000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>73554000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-41848000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-42191000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>520965000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-19684000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-129135000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-34396000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-105439000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-79417000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-108652000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-43072000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-65733000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-34481000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-31722000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-28584000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-102288000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-17294000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-29041000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-145216000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-16102000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-27312000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>647630000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-14826000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-20298000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>25853000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-16339000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-14827000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>51900000</v>
+      </c>
+      <c r="C21">
         <v>-55800000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-127000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-300000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-1269000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-1600000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-600000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-100000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>182300000</v>
+      </c>
+      <c r="C22">
         <v>-1436700000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>861400000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>955900000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>44341000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>74900000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>210300000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-131200000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-229926000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>439637000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>287026000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-187797000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>88380000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>59814000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>189894000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-152709000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>52909000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-62472000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-39218000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2289000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>881000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-53723000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>50841000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>44806000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>14321000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>35377000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>98664000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-40252000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-35414000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>36211000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>71876000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-129317000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>87956000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>72985000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>59090000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>47065000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>31987000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-214560000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>45319000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>120385000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>1470200000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15000</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1271900000</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2862,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>962975000</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2874,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>777596000</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2886,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>824088000</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2898,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>781283000</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2910,22 +3081,22 @@
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>673173000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>259769000</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>470048000</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -2934,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>202952000</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -2946,979 +3117,1006 @@
         <v>0</v>
       </c>
       <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>219821000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>182400000</v>
+      </c>
+      <c r="C24">
         <v>-1436700000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>861400000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2426100000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>44356000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>74900000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>210300000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1140700000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-229926000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>439637000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>287026000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>775178000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>88380000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>59814000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>189894000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>624887000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>52909000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-62472000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-39218000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>826377000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>881000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-53723000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>50841000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>826089000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>14321000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>35377000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>98664000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>632921000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>224355000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>36211000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>71876000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>340731000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>87956000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>72985000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>59090000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>250017000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>31987000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-214560000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>45319000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>340206000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>15800000</v>
+      </c>
+      <c r="C25">
         <v>16300000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>13900000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>20100000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>14318000</v>
-      </c>
-      <c r="F25">
-        <v>14000000</v>
       </c>
       <c r="G25">
         <v>14000000</v>
       </c>
       <c r="H25">
+        <v>14000000</v>
+      </c>
+      <c r="I25">
         <v>18700000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>16284000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>13378000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>21040000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>9047000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>12315000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>10551000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>11134000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>12994000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>9997000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>8495000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>7732000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>7295000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>8269000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>7036000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>6762000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>8564000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4459000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>4919000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3902000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>2772000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-1835000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4889000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>6102000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>6357000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>214000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>5640000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>5994000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>7515000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>7699000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>7431000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>3623000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>3850000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>-29000000</v>
+        <v>-32600000</v>
       </c>
       <c r="C26">
         <v>-29000000</v>
       </c>
       <c r="D26">
+        <v>-29000000</v>
+      </c>
+      <c r="E26">
         <v>-28900000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-29029000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-26000000</v>
-      </c>
-      <c r="G26">
-        <v>-26100000</v>
       </c>
       <c r="H26">
         <v>-26100000</v>
       </c>
       <c r="I26">
+        <v>-26100000</v>
+      </c>
+      <c r="J26">
         <v>-28517000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-24089000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-24084000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-23902000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-23912000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-22551000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-22533000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-22348000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-22334000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-20945000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-20715000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-20696000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-20911000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-18961000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-18937000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-18903000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-18945000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-17189000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-17166000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-16962000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-17268000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-15560000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-15495000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-15785000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-15787000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-14505000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-14496000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-14546000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-14533000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-13101000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-12959000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-12953000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>0.1212</v>
+      </c>
+      <c r="C27">
         <v>0.1343</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.0579</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.0556</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.0285</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.0405</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.0485</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.0745</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.0634</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.0487</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.0509</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.0776</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.0551</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.07049999999999999</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.07190000000000001</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.1071</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.0977</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.0172</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.0107</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.0216</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0218</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0239</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0184</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.041</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.048</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.06710000000000001</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.07729999999999999</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.1043</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.1066</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.1157</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.1125</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.1187</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.101</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.1193</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.1303</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.0177</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.0061</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.0136</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-0.0318</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-0.0172</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>83100100</v>
+      </c>
+      <c r="C28">
         <v>33999900</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>41800000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-174800000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>151336000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>20800000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>47100000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-127200000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>33513000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-81991000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>230702000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-144097000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>102583000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-19659000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>159212000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-141344000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>67728000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-56199000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>96139000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-32413000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>31753000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-66071000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>71636000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-26285000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-1048000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-30935000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>98651000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-62676000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>6994000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-39864000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>80835000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-47641000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>8346000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>3099000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>17634000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-31434000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1287000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-7593000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>3791000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>37571000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>3700000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3600000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1510000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-200000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-2100000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-800000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-448000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-3333000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>483000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>155000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-1642000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-2624000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-7121000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2361000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-15000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1171000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>7094000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>389000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>4194000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-2210000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-3305000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>300000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>634000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-590000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-4524000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-2502000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1577000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-1502000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-2320000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1407000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>554000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>55000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>199000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-343000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1069000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>512000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-4977000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>956000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>48900000</v>
+      </c>
+      <c r="C30">
         <v>-12200000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-49100000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-24100000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>79000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-17900000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-10500000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-70000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-88939000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>23469000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>587000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-1429000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-39811000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>14305000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-12283000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-6816000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-92129000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>18686000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-10530000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-71215000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-24289000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-16219000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>506000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-18984000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>12921000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-4888000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-469000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-75524000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>15225000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-44000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-101624000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-446000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-36292000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-27451000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>720000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-125000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>10634000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>27000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>625000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>48900000</v>
+      </c>
+      <c r="C31">
         <v>-12200000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-49100000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-24100000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>79000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-17900000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-10500000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-70000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-88939000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>23469000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>587000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-1429000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-39811000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>14305000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-12283000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-6816000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-92129000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>18686000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-10530000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-71215000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-24289000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-16219000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>506000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-18984000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>12921000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-4888000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-469000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-75524000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>15225000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-44000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-101624000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-446000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-36292000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-27451000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>720000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-125000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>10634000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>27000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>625000</v>
       </c>
     </row>
